--- a/data/Psychrophiles, Thermophiles, and Mesophiles.xlsx
+++ b/data/Psychrophiles, Thermophiles, and Mesophiles.xlsx
@@ -10,13 +10,12 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="477" documentId="8_{7ACB10E6-3A25-4D72-9F4B-6E9F0C2BB121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BA67E719-2981-48B0-892E-9B2C3EBFDC93}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6D20BB76-7F3F-49CF-9972-83C8C9A32C4D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15660" windowHeight="10200" xr2:uid="{6D20BB76-7F3F-49CF-9972-83C8C9A32C4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1385,22 +1384,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D083C16F-3167-4878-8322-8AAE01B755F8}">
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="136" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="20" max="20" width="13.5703125" customWidth="1"/>
+    <col min="20" max="20" width="13.54296875" customWidth="1"/>
     <col min="21" max="21" width="20" customWidth="1"/>
-    <col min="22" max="22" width="27.28515625" customWidth="1"/>
-    <col min="24" max="24" width="20.5703125" customWidth="1"/>
-    <col min="25" max="25" width="16.85546875" customWidth="1"/>
-    <col min="26" max="26" width="22.28515625" customWidth="1"/>
-    <col min="27" max="27" width="31.85546875" customWidth="1"/>
+    <col min="22" max="22" width="27.26953125" customWidth="1"/>
+    <col min="24" max="24" width="20.54296875" customWidth="1"/>
+    <col min="25" max="25" width="16.81640625" customWidth="1"/>
+    <col min="26" max="26" width="22.26953125" customWidth="1"/>
+    <col min="27" max="27" width="31.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1468,7 +1467,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="28"/>
       <c r="B2" s="2">
         <v>1</v>
@@ -1537,7 +1536,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="28"/>
       <c r="B3" s="3">
         <v>1</v>
@@ -1604,7 +1603,7 @@
       </c>
       <c r="W3" s="5"/>
     </row>
-    <row r="4" spans="1:24" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="28"/>
       <c r="B4" s="2">
         <v>1</v>
@@ -1676,7 +1675,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="28"/>
       <c r="B5" s="3">
         <v>1</v>
@@ -1746,7 +1745,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="28"/>
       <c r="B6" s="2">
         <v>1</v>
@@ -1815,7 +1814,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="28"/>
       <c r="B7" s="3">
         <v>1</v>
@@ -1885,7 +1884,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="28"/>
       <c r="B8" s="2">
         <v>1</v>
@@ -1950,7 +1949,7 @@
       <c r="V8" s="7"/>
       <c r="W8" s="5"/>
     </row>
-    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="28"/>
       <c r="B9" s="3">
         <v>1</v>
@@ -2017,7 +2016,7 @@
       </c>
       <c r="W9" s="5"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="24"/>
       <c r="B10" s="16">
         <v>1</v>
@@ -2083,7 +2082,7 @@
       <c r="W10" s="5"/>
       <c r="X10" s="7"/>
     </row>
-    <row r="11" spans="1:24" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="26" t="s">
         <v>165</v>
       </c>
@@ -2155,7 +2154,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="24"/>
       <c r="B12" s="16">
         <v>1</v>
@@ -2221,7 +2220,7 @@
       <c r="W12" s="18"/>
       <c r="X12" s="7"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="25"/>
       <c r="B13" s="17">
         <v>1</v>
@@ -2286,7 +2285,7 @@
       <c r="V13" s="15"/>
       <c r="W13" s="5"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="27"/>
       <c r="B14" s="2">
         <v>1</v>
@@ -2294,7 +2293,7 @@
       <c r="C14" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="16" t="s">
         <v>140</v>
       </c>
       <c r="E14" s="16" t="s">
@@ -2354,7 +2353,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="27" t="s">
         <v>164</v>
       </c>
@@ -2364,7 +2363,7 @@
       <c r="C15" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="17" t="s">
         <v>64</v>
       </c>
       <c r="E15" s="17" t="s">
@@ -2428,7 +2427,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="30"/>
       <c r="B16" s="16">
         <v>1</v>
@@ -2498,7 +2497,7 @@
       </c>
       <c r="X16" s="7"/>
     </row>
-    <row r="17" spans="1:27" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="30"/>
       <c r="B17" s="17">
         <v>1</v>
@@ -2575,7 +2574,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="30"/>
       <c r="B18" s="16">
         <v>1</v>
@@ -2643,7 +2642,7 @@
       </c>
       <c r="X18" s="7"/>
     </row>
-    <row r="19" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="30"/>
       <c r="B19" s="17">
         <v>1</v>
@@ -2711,7 +2710,7 @@
       </c>
       <c r="X19" s="7"/>
     </row>
-    <row r="20" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="30"/>
       <c r="B20" s="16">
         <v>1</v>
@@ -2779,7 +2778,7 @@
       <c r="W20" s="11"/>
       <c r="X20" s="7"/>
     </row>
-    <row r="21" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="30"/>
       <c r="B21" s="17">
         <v>1</v>
@@ -2847,19 +2846,19 @@
       </c>
       <c r="X21" s="7"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="AA27" s="7"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="AA28" s="7"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="AA29" s="7"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="AA30" s="7"/>
     </row>
-    <row r="31" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="W2" r:id="rId1" display="https://doi.org/10.1128/genomea.00960-13" xr:uid="{8F5D18F5-DE64-45E5-86D9-63951EA097A4}"/>
